--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col2a1-Itga10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col2a1-Itga10.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.03006733333333333</v>
+        <v>0.009821333333333333</v>
       </c>
       <c r="H2">
-        <v>0.090202</v>
+        <v>0.029464</v>
       </c>
       <c r="I2">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338983</v>
       </c>
       <c r="J2">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338984</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7530926666666667</v>
+        <v>0.240998</v>
       </c>
       <c r="N2">
-        <v>2.259278</v>
+        <v>0.7229939999999999</v>
       </c>
       <c r="O2">
-        <v>0.1998288175720169</v>
+        <v>0.05495977716704094</v>
       </c>
       <c r="P2">
-        <v>0.1998288175720169</v>
+        <v>0.05495977716704094</v>
       </c>
       <c r="Q2">
-        <v>0.02264348823955556</v>
+        <v>0.002366921690666666</v>
       </c>
       <c r="R2">
-        <v>0.203791394156</v>
+        <v>0.021302295216</v>
       </c>
       <c r="S2">
-        <v>0.04155035384760856</v>
+        <v>0.003461256213475576</v>
       </c>
       <c r="T2">
-        <v>0.04155035384760855</v>
+        <v>0.003461256213475576</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.03006733333333333</v>
+        <v>0.009821333333333333</v>
       </c>
       <c r="H3">
-        <v>0.090202</v>
+        <v>0.029464</v>
       </c>
       <c r="I3">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338983</v>
       </c>
       <c r="J3">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338984</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.672631</v>
       </c>
       <c r="O3">
-        <v>0.4132852741806677</v>
+        <v>0.3551990176181375</v>
       </c>
       <c r="P3">
-        <v>0.4132852741806677</v>
+        <v>0.3551990176181375</v>
       </c>
       <c r="Q3">
-        <v>0.04683118460688889</v>
+        <v>0.01529715553155555</v>
       </c>
       <c r="R3">
-        <v>0.421480661462</v>
+        <v>0.137674399784</v>
       </c>
       <c r="S3">
-        <v>0.08593429912091606</v>
+        <v>0.02236971964086644</v>
       </c>
       <c r="T3">
-        <v>0.08593429912091605</v>
+        <v>0.02236971964086645</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.03006733333333333</v>
+        <v>0.009821333333333333</v>
       </c>
       <c r="H4">
-        <v>0.090202</v>
+        <v>0.029464</v>
       </c>
       <c r="I4">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338983</v>
       </c>
       <c r="J4">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338984</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.458052666666667</v>
+        <v>2.586447</v>
       </c>
       <c r="N4">
-        <v>4.374158</v>
+        <v>7.759341</v>
       </c>
       <c r="O4">
-        <v>0.3868859082473154</v>
+        <v>0.5898412052148215</v>
       </c>
       <c r="P4">
-        <v>0.3868859082473154</v>
+        <v>0.5898412052148215</v>
       </c>
       <c r="Q4">
-        <v>0.04383975554622223</v>
+        <v>0.025402358136</v>
       </c>
       <c r="R4">
-        <v>0.394557799916</v>
+        <v>0.228621223224</v>
       </c>
       <c r="S4">
-        <v>0.08044508585722862</v>
+        <v>0.03714701262904781</v>
       </c>
       <c r="T4">
-        <v>0.08044508585722861</v>
+        <v>0.03714701262904781</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.151954</v>
       </c>
       <c r="I5">
-        <v>0.350277771374565</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="J5">
-        <v>0.3502777713745649</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7530926666666667</v>
+        <v>0.240998</v>
       </c>
       <c r="N5">
-        <v>2.259278</v>
+        <v>0.7229939999999999</v>
       </c>
       <c r="O5">
-        <v>0.1998288175720169</v>
+        <v>0.05495977716704094</v>
       </c>
       <c r="P5">
-        <v>0.1998288175720169</v>
+        <v>0.05495977716704094</v>
       </c>
       <c r="Q5">
-        <v>0.03814514769022222</v>
+        <v>0.01220687003066667</v>
       </c>
       <c r="R5">
-        <v>0.343306329212</v>
+        <v>0.109861830276</v>
       </c>
       <c r="S5">
-        <v>0.06999559287554057</v>
+        <v>0.01785065594157167</v>
       </c>
       <c r="T5">
-        <v>0.06999559287554057</v>
+        <v>0.01785065594157167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.151954</v>
       </c>
       <c r="I6">
-        <v>0.350277771374565</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="J6">
-        <v>0.3502777713745649</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.672631</v>
       </c>
       <c r="O6">
-        <v>0.4132852741806677</v>
+        <v>0.3551990176181375</v>
       </c>
       <c r="P6">
-        <v>0.4132852741806677</v>
+        <v>0.3551990176181375</v>
       </c>
       <c r="Q6">
         <v>0.07889166344155556</v>
@@ -818,10 +818,10 @@
         <v>0.710024970974</v>
       </c>
       <c r="S6">
-        <v>0.1447646447819303</v>
+        <v>0.1153668333664207</v>
       </c>
       <c r="T6">
-        <v>0.1447646447819303</v>
+        <v>0.1153668333664207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.151954</v>
       </c>
       <c r="I7">
-        <v>0.350277771374565</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="J7">
-        <v>0.3502777713745649</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.458052666666667</v>
+        <v>2.586447</v>
       </c>
       <c r="N7">
-        <v>4.374158</v>
+        <v>7.759341</v>
       </c>
       <c r="O7">
-        <v>0.3868859082473154</v>
+        <v>0.5898412052148215</v>
       </c>
       <c r="P7">
-        <v>0.3868859082473154</v>
+        <v>0.5898412052148215</v>
       </c>
       <c r="Q7">
-        <v>0.07385231163688889</v>
+        <v>0.131006989146</v>
       </c>
       <c r="R7">
-        <v>0.6646708047320001</v>
+        <v>1.179062902314</v>
       </c>
       <c r="S7">
-        <v>0.135517533717094</v>
+        <v>0.191577421837983</v>
       </c>
       <c r="T7">
-        <v>0.135517533717094</v>
+        <v>0.191577421837983</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.06388466666666666</v>
+        <v>0.09547600000000001</v>
       </c>
       <c r="H8">
-        <v>0.191654</v>
+        <v>0.286428</v>
       </c>
       <c r="I8">
-        <v>0.4417924897996819</v>
+        <v>0.6122271003706348</v>
       </c>
       <c r="J8">
-        <v>0.4417924897996818</v>
+        <v>0.6122271003706349</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7530926666666667</v>
+        <v>0.240998</v>
       </c>
       <c r="N8">
-        <v>2.259278</v>
+        <v>0.7229939999999999</v>
       </c>
       <c r="O8">
-        <v>0.1998288175720169</v>
+        <v>0.05495977716704094</v>
       </c>
       <c r="P8">
-        <v>0.1998288175720169</v>
+        <v>0.05495977716704094</v>
       </c>
       <c r="Q8">
-        <v>0.04811107397911111</v>
+        <v>0.023009525048</v>
       </c>
       <c r="R8">
-        <v>0.432999665812</v>
+        <v>0.207085725432</v>
       </c>
       <c r="S8">
-        <v>0.08828287084886777</v>
+        <v>0.0336478650119937</v>
       </c>
       <c r="T8">
-        <v>0.08828287084886774</v>
+        <v>0.0336478650119937</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.06388466666666666</v>
+        <v>0.09547600000000001</v>
       </c>
       <c r="H9">
-        <v>0.191654</v>
+        <v>0.286428</v>
       </c>
       <c r="I9">
-        <v>0.4417924897996819</v>
+        <v>0.6122271003706348</v>
       </c>
       <c r="J9">
-        <v>0.4417924897996818</v>
+        <v>0.6122271003706349</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>4.672631</v>
       </c>
       <c r="O9">
-        <v>0.4132852741806677</v>
+        <v>0.3551990176181375</v>
       </c>
       <c r="P9">
-        <v>0.4132852741806677</v>
+        <v>0.3551990176181375</v>
       </c>
       <c r="Q9">
-        <v>0.09950315796377776</v>
+        <v>0.1487080391186667</v>
       </c>
       <c r="R9">
-        <v>0.8955284216739999</v>
+        <v>1.338372352068</v>
       </c>
       <c r="S9">
-        <v>0.1825863302778214</v>
+        <v>0.2174624646108503</v>
       </c>
       <c r="T9">
-        <v>0.1825863302778214</v>
+        <v>0.2174624646108504</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.06388466666666666</v>
+        <v>0.09547600000000001</v>
       </c>
       <c r="H10">
-        <v>0.191654</v>
+        <v>0.286428</v>
       </c>
       <c r="I10">
-        <v>0.4417924897996819</v>
+        <v>0.6122271003706348</v>
       </c>
       <c r="J10">
-        <v>0.4417924897996818</v>
+        <v>0.6122271003706349</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.458052666666667</v>
+        <v>2.586447</v>
       </c>
       <c r="N10">
-        <v>4.374158</v>
+        <v>7.759341</v>
       </c>
       <c r="O10">
-        <v>0.3868859082473154</v>
+        <v>0.5898412052148215</v>
       </c>
       <c r="P10">
-        <v>0.3868859082473154</v>
+        <v>0.5898412052148215</v>
       </c>
       <c r="Q10">
-        <v>0.09314720859244445</v>
+        <v>0.246943613772</v>
       </c>
       <c r="R10">
-        <v>0.838324877332</v>
+        <v>2.222492523948</v>
       </c>
       <c r="S10">
-        <v>0.1709232886729928</v>
+        <v>0.3611167707477907</v>
       </c>
       <c r="T10">
-        <v>0.1709232886729927</v>
+        <v>0.3611167707477908</v>
       </c>
     </row>
   </sheetData>
